--- a/docs/StructureDefinition-VA.MHV.PHR.cbcReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.cbcReport.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7-beta</t>
+    <t>0.1.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:45:33-05:00</t>
+    <t>2023-04-12T10:49:54-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,8 +91,14 @@
 The `labTestPromises.labTests` are each recorded as a FHIR [Observation for CBC result](StructureDefinition-VA.MHV.PHR.cbcTest.html) that is contained in the DiagnosticReport. The map to [HDR cbcTestPromise](StructureDefinition-VA.MHV.PHR.cbcTest-mappings.html#mappings-for-hdr-labtests-to-mhv-phr-labtestpromises-labtests). 
 The `labTestPromises.specimen` is mapped into a FHIR [Specimen](StructureDefinition-VA.MHV.PHR.cbcSpecimen.html) resource that is contained in the DiagnosticReport. The map to [HDR Specimen](StructureDefinition-VA.MHV.PHR.cbcSpecimen-mappings.html#mappings-for-hdr-labtestpromises-specimen-to-mhv-phr-labtestpromises-specimen).
 The use of contained means that we do not need to de-duplicate the lab tests or specimen.
-TODO determine impact of the new LOINC report on this topic https://loinc.org/file-access/?download-id=22762 the impact has not been assessed. I followed FHIR US-Core.
-This profile is based on [US-Core DiagnosticReport profile for Laboratory Results Reporting](https://hl7.org/fhir/us/core/StructureDefinition-us-core-diagnosticreport-lab.html) and lab Observations. Following the [US-Core example for CBC](https://www.hl7.org/fhir/us/core/DiagnosticReport-cbc.html)</t>
+This profile is based on [US-Core DiagnosticReport profile for Laboratory Results Reporting](https://hl7.org/fhir/us/core/StructureDefinition-us-core-diagnosticreport-lab.html) and lab Observations. Following the [US-Core example for CBC](https://www.hl7.org/fhir/us/core/DiagnosticReport-cbc.html)
+TODO: There are some code `system` values that are simple strings. To make them into URI/URL I prepend `http://example.org`, but something better needs to come along.
+- HL70070
+- 99VA60
+- 99VA61
+- 99VA64
+- 99VA95.3
+TODO: Confirm that "CH" is really a Loinc CBC Panel.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -340,13 +346,193 @@
 </t>
   </si>
   <si>
-    <t>DiagnosticReport.implicitRules</t>
+    <t>DiagnosticReport.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>ConvertDate(labTestPromises.recordUpdateTime)</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -442,28 +628,10 @@
     <t>DiagnosticReport.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>DiagnosticReport.modifierExtension</t>
@@ -509,9 +677,6 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -536,39 +701,10 @@
     <t>DiagnosticReport.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DiagnosticReport.identifier:Rid.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier:Rid.use</t>
@@ -629,9 +765,6 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
@@ -834,9 +967,6 @@
   </si>
   <si>
     <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Codes for diagnostic service sections.</t>
@@ -921,20 +1051,38 @@
     <t>DiagnosticReport.code.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>LOINC#58410-2 'CBC panel - Blood by Automated count'</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding:CBC</t>
+  </si>
+  <si>
+    <t>CBC</t>
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
@@ -944,18 +1092,6 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>LOINC#58410-2 'CBC panel - Blood by Automated count'</t>
-  </si>
-  <si>
     <t>DiagnosticReport.code.text</t>
   </si>
   <si>
@@ -1116,10 +1252,6 @@
 Date IssuedDate Verified</t>
   </si>
   <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
     <t>When the report was released</t>
   </si>
   <si>
@@ -1180,7 +1312,7 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>GetLocation(labTestPromises.labTestRequest.orderingFacilityIdentifier)</t>
+    <t>GetLocation(labTestPromises.recordSource)</t>
   </si>
   <si>
     <t>DiagnosticReport.resultsInterpreter</t>
@@ -1260,7 +1392,7 @@
     <t>outboundRelationship[typeCode=COMP].target</t>
   </si>
   <si>
-    <t>Contained Observation(labTestPromises.labTests.)</t>
+    <t>Contained Observation(labTestPromises.labTests)</t>
   </si>
   <si>
     <t>DiagnosticReport.imagingStudy</t>
@@ -1384,7 +1516,7 @@
     <t>inboundRelationship[typeCode="SPRT"].source[classCode=OBS, moodCode=EVN, code=LOINC:48767-8].value (type=ST)</t>
   </si>
   <si>
-    <t>labTestPromises.labCommentEvents[0].comments</t>
+    <t>labTestPromises.labCommentEvents.comments combined</t>
   </si>
   <si>
     <t>DiagnosticReport.conclusionCode</t>
@@ -1425,207 +1557,6 @@
   </si>
   <si>
     <t>text (type=ED)</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.presentedForm.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.presentedForm.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.presentedForm.contentType</t>
-  </si>
-  <si>
-    <t>Mime type of the content, with charset etc.</t>
-  </si>
-  <si>
-    <t>Identifies the type of the data in the attachment and allows a method to be chosen to interpret or render the data. Includes mime type parameters such as charset where appropriate.</t>
-  </si>
-  <si>
-    <t>Processors of the data need to be able to know how to interpret the data.</t>
-  </si>
-  <si>
-    <t>text/plain; charset=UTF-8, image/png</t>
-  </si>
-  <si>
-    <t>The mime type of an attachment. Any valid mime type is allowed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/mimetypes|4.0.1</t>
-  </si>
-  <si>
-    <t>Attachment.contentType</t>
-  </si>
-  <si>
-    <t>ED.2+ED.3/RP.2+RP.3. Note conversion may be needed if old style values are being used</t>
-  </si>
-  <si>
-    <t>./mediaType, ./charset</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.presentedForm.language</t>
-  </si>
-  <si>
-    <t>Human language of the content (BCP-47)</t>
-  </si>
-  <si>
-    <t>The human language of the content. The value can be any valid value according to BCP 47.</t>
-  </si>
-  <si>
-    <t>Users need to be able to choose between the languages in a set of attachments.</t>
-  </si>
-  <si>
-    <t>en-AU</t>
-  </si>
-  <si>
-    <t>Attachment.language</t>
-  </si>
-  <si>
-    <t>./language</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.presentedForm.data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base64Binary
-</t>
-  </si>
-  <si>
-    <t>Data inline, base64ed</t>
-  </si>
-  <si>
-    <t>The actual data of the attachment - a sequence of bytes, base64 encoded.</t>
-  </si>
-  <si>
-    <t>The base64-encoded data SHALL be expressed in the same character set as the base resource XML or JSON.</t>
-  </si>
-  <si>
-    <t>The data needs to able to be transmitted inline.</t>
-  </si>
-  <si>
-    <t>Attachment.data</t>
-  </si>
-  <si>
-    <t>ED.5</t>
-  </si>
-  <si>
-    <t>./data</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.presentedForm.url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">url
-</t>
-  </si>
-  <si>
-    <t>Uri where the data can be found</t>
-  </si>
-  <si>
-    <t>A location where the data can be accessed.</t>
-  </si>
-  <si>
-    <t>If both data and url are provided, the url SHALL point to the same content as the data contains. Urls may be relative references or may reference transient locations such as a wrapping envelope using cid: though this has ramifications for using signatures. Relative URLs are interpreted relative to the service url, like a resource reference, rather than relative to the resource itself. If a URL is provided, it SHALL resolve to actual data.</t>
-  </si>
-  <si>
-    <t>The data needs to be transmitted by reference.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/logo-small.png</t>
-  </si>
-  <si>
-    <t>Attachment.url</t>
-  </si>
-  <si>
-    <t>RP.1+RP.2 - if they refer to a URL (see v2.6)</t>
-  </si>
-  <si>
-    <t>./reference/literal</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.presentedForm.size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unsignedInt
-</t>
-  </si>
-  <si>
-    <t>Number of bytes of content (if url provided)</t>
-  </si>
-  <si>
-    <t>The number of bytes of data that make up this attachment (before base64 encoding, if that is done).</t>
-  </si>
-  <si>
-    <t>The number of bytes is redundant if the data is provided as a base64binary, but is useful if the data is provided as a url reference.</t>
-  </si>
-  <si>
-    <t>Representing the size allows applications to determine whether they should fetch the content automatically in advance, or refuse to fetch it at all.</t>
-  </si>
-  <si>
-    <t>Attachment.size</t>
-  </si>
-  <si>
-    <t>N/A (needs data type R3 proposal)</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.presentedForm.hash</t>
-  </si>
-  <si>
-    <t>Hash of the data (sha-1, base64ed)</t>
-  </si>
-  <si>
-    <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
-  </si>
-  <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
-  </si>
-  <si>
-    <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>
-  </si>
-  <si>
-    <t>Attachment.hash</t>
-  </si>
-  <si>
-    <t>.integrityCheck[parent::ED/integrityCheckAlgorithm="SHA-1"]</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.presentedForm.title</t>
-  </si>
-  <si>
-    <t>Label to display in place of the data</t>
-  </si>
-  <si>
-    <t>A label or set of text to display in place of the data.</t>
-  </si>
-  <si>
-    <t>Applications need a label to display to a human user in place of the actual data if the data cannot be rendered or perceived by the viewer.</t>
-  </si>
-  <si>
-    <t>Official Corporate Logo</t>
-  </si>
-  <si>
-    <t>Attachment.title</t>
-  </si>
-  <si>
-    <t>./title/data</t>
-  </si>
-  <si>
-    <t>labTestPromises.labCommentEvent[1+].comments - when more than one comment</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.presentedForm.creation</t>
-  </si>
-  <si>
-    <t>Date attachment was first created</t>
-  </si>
-  <si>
-    <t>The date that the attachment was first created.</t>
-  </si>
-  <si>
-    <t>This is often tracked as an integrity issue for use of the attachment.</t>
-  </si>
-  <si>
-    <t>Attachment.creation</t>
   </si>
 </sst>
 </file>
@@ -1953,7 +1884,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO58"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1963,7 +1894,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.65234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.43359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="60.546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
@@ -1986,7 +1917,7 @@
     <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="65.98046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -2001,7 +1932,7 @@
     <col min="38" max="38" width="166.02734375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="118.1328125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="75.91015625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="53.09765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2500,10 +2431,10 @@
         <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>104</v>
@@ -2514,9 +2445,7 @@
       <c r="M5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>107</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>81</v>
@@ -2565,7 +2494,7 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
@@ -2577,7 +2506,7 @@
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>81</v>
@@ -2586,7 +2515,7 @@
         <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>81</v>
@@ -2604,14 +2533,14 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>81</v>
@@ -2623,16 +2552,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2658,43 +2587,43 @@
         <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AD6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2703,7 +2632,7 @@
         <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>81</v>
@@ -2714,14 +2643,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2737,10 +2666,10 @@
         <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>121</v>
@@ -2820,7 +2749,7 @@
         <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>81</v>
@@ -2831,21 +2760,21 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>81</v>
@@ -2854,19 +2783,19 @@
         <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2916,19 +2845,19 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>81</v>
@@ -2937,32 +2866,32 @@
         <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>81</v>
@@ -2971,19 +2900,19 @@
         <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3033,19 +2962,19 @@
         <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -3054,7 +2983,7 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>81</v>
@@ -3065,14 +2994,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3085,26 +3014,24 @@
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="J10" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>81</v>
       </c>
@@ -3152,7 +3079,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3164,7 +3091,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -3173,7 +3100,7 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
@@ -3184,18 +3111,18 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>80</v>
@@ -3210,20 +3137,18 @@
         <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>81</v>
       </c>
@@ -3247,29 +3172,31 @@
         <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3284,16 +3211,16 @@
         <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>81</v>
@@ -3301,23 +3228,21 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>81</v>
@@ -3329,20 +3254,18 @@
         <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>81</v>
       </c>
@@ -3366,13 +3289,13 @@
         <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>81</v>
@@ -3390,7 +3313,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3405,16 +3328,16 @@
         <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>81</v>
@@ -3422,10 +3345,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3442,21 +3365,23 @@
         <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>81</v>
@@ -3505,7 +3430,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3517,7 +3442,7 @@
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>81</v>
@@ -3526,7 +3451,7 @@
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3537,21 +3462,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
@@ -3563,16 +3488,16 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3598,28 +3523,28 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>174</v>
@@ -3628,13 +3553,13 @@
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>81</v>
@@ -3643,7 +3568,7 @@
         <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
@@ -3657,15 +3582,15 @@
         <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>90</v>
@@ -3674,26 +3599,24 @@
         <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O15" t="s" s="2">
         <v>180</v>
       </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3702,46 +3625,46 @@
         <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3759,10 +3682,10 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3773,21 +3696,21 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3796,23 +3719,21 @@
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>81</v>
       </c>
@@ -3836,13 +3757,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3860,28 +3781,28 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3892,21 +3813,21 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>81</v>
@@ -3915,23 +3836,21 @@
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>81</v>
       </c>
@@ -3943,7 +3862,7 @@
         <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -3979,28 +3898,28 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -4011,44 +3930,46 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
       </c>
@@ -4060,7 +3981,7 @@
         <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>81</v>
@@ -4096,28 +4017,28 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -4128,21 +4049,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -4154,16 +4075,20 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4199,25 +4124,23 @@
         <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
@@ -4226,16 +4149,16 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4243,18 +4166,20 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>90</v>
@@ -4269,18 +4194,20 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4328,13 +4255,13 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
@@ -4343,16 +4270,16 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4360,21 +4287,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4386,20 +4313,16 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>237</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>238</v>
+        <v>105</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4447,28 +4370,28 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>235</v>
+        <v>107</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>242</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>244</v>
+        <v>108</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4479,44 +4402,44 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4540,98 +4463,102 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>245</v>
+        <v>118</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>253</v>
+        <v>108</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
@@ -4640,7 +4567,7 @@
         <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>81</v>
@@ -4655,35 +4582,37 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
@@ -4695,40 +4624,38 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>81</v>
@@ -4737,18 +4664,20 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4757,7 +4686,7 @@
         <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>81</v>
@@ -4772,13 +4701,13 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>261</v>
+        <v>149</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -4796,13 +4725,13 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
@@ -4814,13 +4743,13 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>81</v>
@@ -4828,24 +4757,24 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>81</v>
@@ -4854,18 +4783,20 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4877,7 +4808,7 @@
         <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>81</v>
@@ -4889,13 +4820,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4913,10 +4844,10 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>90</v>
@@ -4928,27 +4859,27 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4968,18 +4899,20 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4992,7 +4925,7 @@
         <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>81</v>
@@ -5028,7 +4961,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>167</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5040,16 +4973,16 @@
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5060,21 +4993,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
@@ -5083,20 +5016,18 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>136</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5133,40 +5064,40 @@
         <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5177,10 +5108,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5191,7 +5122,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -5203,20 +5134,18 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5225,7 +5154,7 @@
         <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>81</v>
@@ -5264,13 +5193,13 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
@@ -5282,35 +5211,35 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -5319,22 +5248,22 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5344,7 +5273,7 @@
         <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>81</v>
@@ -5383,13 +5312,13 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
@@ -5398,13 +5327,13 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5415,14 +5344,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>307</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5435,23 +5364,23 @@
         <v>91</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>308</v>
+        <v>167</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5476,13 +5405,11 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5500,56 +5427,56 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>81</v>
@@ -5558,20 +5485,18 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5595,37 +5520,35 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
@@ -5634,35 +5557,37 @@
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="D32" t="s" s="2">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>90</v>
@@ -5677,20 +5602,18 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5699,7 +5622,7 @@
         <v>81</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>81</v>
@@ -5714,53 +5637,55 @@
         <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5768,20 +5693,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>90</v>
@@ -5796,20 +5719,18 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>343</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5833,13 +5754,13 @@
         <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>81</v>
@@ -5857,46 +5778,46 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5906,29 +5827,25 @@
         <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>347</v>
+        <v>104</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>348</v>
+        <v>105</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5976,7 +5893,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>345</v>
+        <v>107</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5985,37 +5902,37 @@
         <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>354</v>
+        <v>108</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>355</v>
+        <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>357</v>
+        <v>110</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6025,29 +5942,27 @@
         <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>358</v>
+        <v>111</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>359</v>
+        <v>112</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>360</v>
+        <v>113</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6083,19 +5998,19 @@
         <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>356</v>
+        <v>118</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6107,41 +6022,41 @@
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>364</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>365</v>
+        <v>108</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>367</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>369</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -6153,19 +6068,19 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>370</v>
+        <v>145</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6202,19 +6117,17 @@
         <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6229,38 +6142,40 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -6269,22 +6184,22 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>376</v>
+        <v>145</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6294,7 +6209,7 @@
         <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>81</v>
@@ -6333,7 +6248,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6351,59 +6266,59 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>382</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K38" t="s" s="2">
-        <v>385</v>
+        <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6413,7 +6328,7 @@
         <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>81</v>
@@ -6452,13 +6367,13 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
@@ -6470,58 +6385,58 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>391</v>
+        <v>347</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>392</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6569,13 +6484,13 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
@@ -6584,31 +6499,31 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>354</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>355</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>81</v>
+        <v>357</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>81</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6627,17 +6542,19 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6686,13 +6603,13 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
@@ -6701,16 +6618,16 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6718,14 +6635,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6735,25 +6652,29 @@
         <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>164</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>165</v>
+        <v>373</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6789,19 +6710,17 @@
         <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>167</v>
+        <v>370</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6810,22 +6729,22 @@
         <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>168</v>
+        <v>381</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -6833,44 +6752,48 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="D42" t="s" s="2">
-        <v>135</v>
+        <v>371</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>136</v>
+        <v>385</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>137</v>
+        <v>373</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>171</v>
+        <v>374</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
       </c>
@@ -6918,77 +6841,77 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>174</v>
+        <v>370</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>168</v>
+        <v>381</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>81</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>139</v>
+        <v>391</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>145</v>
+        <v>392</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7037,77 +6960,77 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>81</v>
+        <v>393</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>133</v>
+        <v>395</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>81</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>81</v>
+        <v>398</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>164</v>
+        <v>399</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7156,13 +7079,13 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
@@ -7171,38 +7094,38 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>405</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>81</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>81</v>
+        <v>410</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7214,16 +7137,20 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7271,13 +7198,13 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
@@ -7286,16 +7213,16 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7303,24 +7230,24 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>425</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>81</v>
@@ -7329,17 +7256,19 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>164</v>
+        <v>417</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7388,13 +7317,13 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7406,38 +7335,38 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>430</v>
+        <v>356</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>81</v>
@@ -7446,16 +7375,20 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>189</v>
+        <v>426</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7479,13 +7412,13 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>435</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
@@ -7503,7 +7436,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7521,24 +7454,24 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7549,10 +7482,10 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>81</v>
@@ -7561,20 +7494,18 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7622,7 +7553,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7640,10 +7571,10 @@
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7654,21 +7585,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>81</v>
+        <v>441</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
@@ -7677,19 +7608,21 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>164</v>
+        <v>442</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>165</v>
+        <v>443</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>166</v>
+        <v>444</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7737,28 +7670,28 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>167</v>
+        <v>440</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>168</v>
+        <v>432</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7769,21 +7702,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -7795,17 +7728,15 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7842,31 +7773,31 @@
         <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
@@ -7875,7 +7806,7 @@
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7886,21 +7817,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -7909,21 +7840,21 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>448</v>
+        <v>112</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -7935,7 +7866,7 @@
         <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>81</v>
@@ -7947,13 +7878,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>452</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -7971,28 +7902,28 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>454</v>
+        <v>118</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>455</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>456</v>
+        <v>108</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8003,43 +7934,45 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>460</v>
+        <v>197</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8052,7 +7985,7 @@
         <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>461</v>
+        <v>81</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>81</v>
@@ -8064,13 +7997,13 @@
         <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>81</v>
@@ -8088,19 +8021,19 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
@@ -8109,7 +8042,7 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>463</v>
+        <v>190</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8120,10 +8053,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8146,19 +8079,19 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>465</v>
+        <v>104</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8207,7 +8140,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8225,10 +8158,10 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8239,10 +8172,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8250,7 +8183,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>90</v>
@@ -8265,20 +8198,16 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8290,7 +8219,7 @@
         <v>81</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>479</v>
+        <v>81</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>81</v>
@@ -8326,10 +8255,10 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>90</v>
@@ -8344,10 +8273,10 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>481</v>
+        <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8358,14 +8287,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>81</v>
+        <v>466</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8375,28 +8304,26 @@
         <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>484</v>
+        <v>104</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8445,7 +8372,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8463,24 +8390,24 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>81</v>
+        <v>470</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>81</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8491,7 +8418,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8500,23 +8427,19 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>465</v>
+        <v>231</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8540,13 +8463,13 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>81</v>
+        <v>476</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>81</v>
+        <v>477</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>81</v>
@@ -8564,13 +8487,13 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
@@ -8582,10 +8505,10 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>81</v>
+        <v>470</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8596,10 +8519,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8610,7 +8533,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -8619,20 +8542,22 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>164</v>
+        <v>480</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8645,7 +8570,7 @@
         <v>81</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>502</v>
+        <v>81</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>81</v>
@@ -8681,13 +8606,13 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
@@ -8699,137 +8624,20 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>81</v>
+        <v>470</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO58" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO58">
+  <autoFilter ref="A1:AO57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8839,7 +8647,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
